--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8250_ruleName_ruleNumber.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8250_ruleName_ruleNumber.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299695E9-61E4-4A49-8F21-1AC8173B353C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="20115" windowHeight="9015"/>
+    <workbookView xWindow="2400" yWindow="900" windowWidth="31830" windowHeight="16965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Integer</t>
   </si>
@@ -70,9 +76,6 @@
   </si>
   <si>
     <t>Rule</t>
-  </si>
-  <si>
-    <t>new  myType($RuleId+1, $Rule, $RuleId+num)</t>
   </si>
   <si>
     <t>Testing $Rule and $RuleId in Rule table</t>
@@ -130,47 +133,57 @@
     <t>Super Value</t>
   </si>
   <si>
-    <t>if ($RuleId&gt;2 )
-{return $RuleId-2;}
+    <t>myReturn1</t>
+  </si>
+  <si>
+    <t>SmartRules Collect DoubleValue[]  mySmart1(Integer supervalue)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value Super</t>
+  </si>
+  <si>
+    <t>myReturn2</t>
+  </si>
+  <si>
+    <t>SmartRules myType  mySmart2(Integer supervalue)</t>
+  </si>
+  <si>
+    <t>Test mySmart1</t>
+  </si>
+  <si>
+    <t>supervalue</t>
+  </si>
+  <si>
+    <t>_res_</t>
+  </si>
+  <si>
+    <t>new  myType($RuleId, $Rule, $RuleId+num)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  new myType($RuleId, "test", param)</t>
+  </si>
+  <si>
+    <t>if ($RuleId&gt;1 )
+{return $RuleId-3;}
 else
-{return  $RuleId+2;}</t>
-  </si>
-  <si>
-    <t>myReturn1</t>
-  </si>
-  <si>
-    <t>SmartRules Collect DoubleValue[]  mySmart1(Integer supervalue)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  new myType($RuleId+1, "test", param)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Value Super</t>
-  </si>
-  <si>
-    <t>myReturn2</t>
-  </si>
-  <si>
-    <t>SmartRules myType  mySmart2(Integer supervalue)</t>
-  </si>
-  <si>
-    <t>Test mySmart1</t>
-  </si>
-  <si>
-    <t>supervalue</t>
-  </si>
-  <si>
-    <t>_res_</t>
+{return  $RuleId+1;}</t>
+  </si>
+  <si>
+    <t>if ($RuleId&gt;3 )
+{return $RuleId-3;}
+else
+{return  $RuleId+1;}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,13 +242,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -243,9 +253,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -272,7 +285,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -281,14 +294,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -326,9 +342,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,9 +377,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,9 +429,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -571,403 +621,403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="6" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
         <v>3</v>
       </c>
-      <c r="G10" s="2">
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
         <v>3</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2">
-        <v>2</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <v>2</v>
-      </c>
-      <c r="C37" s="2">
-        <v>2</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <v>3</v>
-      </c>
-      <c r="C38" s="2">
-        <v>2</v>
-      </c>
-      <c r="F38" s="2">
-        <v>2</v>
-      </c>
-      <c r="G38" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
+      <c r="C46" s="1">
         <v>4</v>
       </c>
-      <c r="C39" s="2">
-        <v>2</v>
-      </c>
-      <c r="F39" s="2">
-        <v>3</v>
-      </c>
-      <c r="G39" s="2">
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="2">
+      <c r="C47" s="1">
         <v>5</v>
       </c>
-      <c r="C40" s="2">
-        <v>2</v>
-      </c>
-      <c r="F40" s="2">
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
         <v>5</v>
       </c>
-      <c r="G40" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="2">
-        <v>2</v>
-      </c>
-      <c r="C45" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="2">
-        <v>3</v>
-      </c>
-      <c r="C46" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="2">
-        <v>4</v>
-      </c>
-      <c r="C47" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="2">
-        <v>5</v>
-      </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>3</v>
       </c>
     </row>
@@ -986,7 +1036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -998,7 +1048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
